--- a/diploma-backend/src/test/resources/file/conditions-results.xlsx
+++ b/diploma-backend/src/test/resources/file/conditions-results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Результат условия:</t>
   </si>
@@ -29,13 +29,16 @@
     <t>1 - 1</t>
   </si>
   <si>
+    <t>2 - 1</t>
+  </si>
+  <si>
     <t>Время</t>
   </si>
   <si>
     <t>Параметры в виде: | индекс параметра | значение параметра | индекс терм-множества | название терм-множества | вес терм-множества |</t>
   </si>
   <si>
-    <t>31.05.2024 13:20:56</t>
+    <t>01.06.2024 12:57:50</t>
   </si>
   <si>
     <t>[4.0, 5.0, 7.0]</t>
@@ -92,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -116,69 +119,83 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="4"/>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6" t="n">
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="n">
         <v>2.0</v>
       </c>
-      <c r="O6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S6"/>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
